--- a/项目实战/项目实战DAY01/测试用例及缺陷.xlsx
+++ b/项目实战/项目实战DAY01/测试用例及缺陷.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\leaving\GitWorksplace\Test\项目实战\项目实战DAY01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD1CFE6-BEB4-4CBC-BEA9-E90027104CEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前台测试用例范围" sheetId="3" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="275">
   <si>
     <t>功能点编号</t>
   </si>
@@ -473,9 +479,6 @@
     <t>003</t>
   </si>
   <si>
-    <t>验证系统对手机号码为非法字符是否做出了正确的响应</t>
-  </si>
-  <si>
     <t>1、分别输入含有特殊字符、中文、英文、表情、字母的手机号码
 2、输入正确验证码、密码、确认密码、推荐人手机
 3、勾选许可协议
@@ -485,9 +488,6 @@
     <t>004</t>
   </si>
   <si>
-    <t>验证系统对手机号码非法组合是否做出了正确的响应</t>
-  </si>
-  <si>
     <t>1、分别输入非1开头，第二位为0，1，2的手机号码
 2、输入正确验证码、密码、确认密码、推荐人手机
 3、勾选许可协议
@@ -611,9 +611,6 @@
     <t>014</t>
   </si>
   <si>
-    <t>验证系统对密码的大小写做出了正确的相应</t>
-  </si>
-  <si>
     <t>1、输入含有大写的密码，输入对应小写的确认密码
 2、其他输入框内容合理正确
 3、勾选许可协议
@@ -626,9 +623,6 @@
     <t>015</t>
   </si>
   <si>
-    <t>验证系统对必填项为空做出了正确的响应</t>
-  </si>
-  <si>
     <t>1、分别令某必填项为空，其他输入框的内容合理正确
 2、勾选许可协议
 3、点击‘注册’按钮</t>
@@ -690,13 +684,6 @@
     <t>019</t>
   </si>
   <si>
-    <t>验证系统是否对新注册用户赠送100积分</t>
-  </si>
-  <si>
-    <t>1、使用合法的手机号注册
-2、使用合法的邮箱注册</t>
-  </si>
-  <si>
     <t xml:space="preserve">1、我的商城-&gt;资产中心-&gt;我的积分，目前可用积分+100
 2、系统-&gt;会员-&gt;会员列表，新注册用户记录的积分项显示100
 3、tp_users表新注册用户，pay_points字段显示100 </t>
@@ -721,15 +708,9 @@
     <t>2、楼层顺序</t>
   </si>
   <si>
-    <t>3、每层楼层数据</t>
-  </si>
-  <si>
     <t>测试功能三</t>
   </si>
   <si>
-    <t>楼层商品数据</t>
-  </si>
-  <si>
     <t>测试功能四</t>
   </si>
   <si>
@@ -758,9 +739,6 @@
   </si>
   <si>
     <t>进入系统首页</t>
-  </si>
-  <si>
-    <t>验证首页商品一级分类数据是否正确</t>
   </si>
   <si>
     <t>1、navicate连接测试服务器：IP
@@ -834,13 +812,6 @@
 3、比对每层商品数据与数据库结果</t>
   </si>
   <si>
-    <t>IP：
-sql：SELECT goods_id,goods_name,shop_price from tp_goods  where cat_id IN 
-(SELECT id from tp_goods_category where parent_id_path like '0_2_%_%') and is_on_sale = 1
-and is_hot = 1
-ORDER BY sort limit 6</t>
-  </si>
-  <si>
     <t>每层商品数据与数据库查询一致</t>
   </si>
   <si>
@@ -928,18 +899,69 @@
   <si>
     <t>1、在第3s时，点击跳转图片</t>
   </si>
+  <si>
+    <t>验证系统对手机号码为非法字符是否做出了正确的响应</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证系统对手机号码格式错误是否做出了正确的响应</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证系统对必填项为空做出了正确的响应</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证系统对密码的大小写做出了正确的响应</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证系统是否对新注册用户赠送100积分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、使用合法的手机号注册
+2、使用合法的邮箱注册</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、每层楼层数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼层商品数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证首页商品一级分类数据是否正确</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、navicate连接测试服务器：IP
+2、输入对应的sql进行查询
+3、比对首页二级商品信息与数据库查看结果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、navicate连接测试服务器：IP
+2、输入对应的sql进行查询
+3、比对首页三级商品信息与数据库查看结果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP：
+sql：SELECT goods_id,goods_name,shop_price from tp_goods  where cat_id IN 
+(SELECT id from tp_goods_category where parent_id_path like '0_2_%_%') and is_on_sale = 1
+and is_hot = 1
+ORDER BY sort limit 6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,155 +972,27 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1107,13 +1001,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,198 +1031,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.4"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1388,255 +1102,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1652,38 +1124,14 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1712,62 +1160,45 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2054,436 +1485,436 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="23.75" style="16" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="16" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="16" customWidth="1"/>
-    <col min="5" max="5" width="9" style="16"/>
-    <col min="6" max="6" width="16.25" style="16" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="16" customWidth="1"/>
-    <col min="8" max="8" width="21.625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="27.875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9" style="8"/>
+    <col min="6" max="6" width="16.25" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="21.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="18" t="s">
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="18" t="s">
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="18" t="s">
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="18" t="s">
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="18" t="s">
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" ht="27" spans="1:6">
-      <c r="A8" s="19" t="s">
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="19" t="s">
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="19" t="s">
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="19" t="s">
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="19" t="s">
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="21" t="s">
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="16" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" ht="27" spans="1:1">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="23" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B31" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24" t="s">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="16" t="s">
+      <c r="H31" s="16"/>
+      <c r="I31" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" ht="54" spans="2:9">
-      <c r="B32" s="16" t="s">
+    <row r="32" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="B32" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="16" t="s">
+      <c r="I32" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" ht="40.5" spans="1:9">
-      <c r="A33" s="16" t="s">
+    <row r="33" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="8">
         <v>10</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="H33" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I33" s="16" t="s">
+      <c r="I33" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" ht="27" spans="8:8">
-      <c r="H34" s="16" t="s">
+    <row r="34" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="H34" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="16" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="21" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" ht="165" customHeight="1" spans="2:3">
-      <c r="B40" s="16" t="s">
+    <row r="40" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="8" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2492,22 +1923,21 @@
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="G31:H31"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
@@ -2522,7 +1952,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -2533,25 +1963,25 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15" t="s">
+      <c r="H4" s="17"/>
+      <c r="I4" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>78</v>
       </c>
@@ -2586,7 +2016,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" ht="40.5" spans="1:11">
+    <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>85</v>
       </c>
@@ -2621,7 +2051,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" ht="40.5" spans="1:10">
+    <row r="7" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>93</v>
       </c>
@@ -2650,7 +2080,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" ht="27" spans="1:8">
+    <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>98</v>
       </c>
@@ -2673,7 +2103,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>103</v>
       </c>
@@ -2693,7 +2123,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" ht="27" spans="1:8">
+    <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>106</v>
       </c>
@@ -2716,7 +2146,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>108</v>
       </c>
@@ -2727,7 +2157,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>78</v>
       </c>
@@ -2741,7 +2171,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>85</v>
       </c>
@@ -2752,12 +2182,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="4:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D18" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="19" ht="27" spans="2:4">
+    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>65</v>
       </c>
@@ -2765,7 +2195,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>117</v>
       </c>
@@ -2773,7 +2203,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" ht="27" spans="2:4">
+    <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>119</v>
       </c>
@@ -2781,7 +2211,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>121</v>
       </c>
@@ -2789,7 +2219,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>123</v>
       </c>
@@ -2803,40 +2233,38 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:K4"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="19.125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="28" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="7" customWidth="1"/>
-    <col min="8" max="8" width="25.25" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.75" style="7" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="15" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="28" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.75" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>124</v>
       </c>
@@ -2874,391 +2302,390 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" ht="67.5" spans="2:8">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B2" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" ht="67.5" spans="2:8">
-      <c r="B3" s="10"/>
-      <c r="C3" s="8" t="s">
+    <row r="3" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="20"/>
+      <c r="C3" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="4" ht="81" spans="2:8">
-      <c r="B4" s="10"/>
-      <c r="C4" s="8" t="s">
+    <row r="4" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="B4" s="20"/>
+      <c r="C4" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="B5" s="20"/>
+      <c r="C5" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="D5" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="5" ht="81" spans="2:8">
-      <c r="B5" s="10"/>
-      <c r="C5" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="7" t="s">
+    <row r="6" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="20"/>
+      <c r="C6" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="F6" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="6" ht="67.5" spans="2:8">
-      <c r="B6" s="10"/>
-      <c r="C6" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="7" t="s">
+    <row r="7" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="20"/>
+      <c r="C7" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" ht="67.5" spans="2:8">
-      <c r="B7" s="10"/>
-      <c r="C7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="H7" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="20"/>
+      <c r="C8" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E8" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" ht="67.5" spans="2:8">
-      <c r="B8" s="10"/>
-      <c r="C8" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="11" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="20"/>
+      <c r="C9" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" ht="40.5" spans="2:8">
-      <c r="B9" s="10"/>
-      <c r="C9" s="8" t="s">
+      <c r="F9" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="H9" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="B10" s="20"/>
+      <c r="C10" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="10" ht="81" spans="2:8">
-      <c r="B10" s="10"/>
-      <c r="C10" s="8" t="s">
+      <c r="F10" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="H10" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="B11" s="20"/>
+      <c r="C11" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E11" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" ht="81" spans="2:8">
-      <c r="B11" s="10"/>
-      <c r="C11" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" s="7" t="s">
+    </row>
+    <row r="12" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="B12" s="20"/>
+      <c r="C12" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" ht="81" spans="2:8">
-      <c r="B12" s="10"/>
-      <c r="C12" s="8" t="s">
+      <c r="F12" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="H12" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="20"/>
+      <c r="C13" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" ht="67.5" spans="2:8">
-      <c r="B13" s="10"/>
-      <c r="C13" s="8" t="s">
+      <c r="F13" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="H13" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="B14" s="20"/>
+      <c r="C14" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" ht="27" spans="2:8">
-      <c r="B14" s="10"/>
-      <c r="C14" s="8" t="s">
+      <c r="F14" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="H14" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B15" s="20"/>
+      <c r="C15" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H14" s="7" t="s">
+      <c r="E15" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="15" ht="67.5" spans="2:8">
-      <c r="B15" s="10"/>
-      <c r="C15" s="8" t="s">
+      <c r="H15" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="7" t="s">
+    </row>
+    <row r="16" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="B16" s="20"/>
+      <c r="C16" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="E16" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="16" ht="54" spans="2:8">
-      <c r="B16" s="10"/>
-      <c r="C16" s="8" t="s">
+    <row r="17" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="20"/>
+      <c r="C17" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="17" ht="40.5" spans="2:8">
-      <c r="B17" s="10"/>
-      <c r="C17" s="8" t="s">
+    <row r="18" spans="2:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="20"/>
+      <c r="C18" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H18" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="20"/>
+      <c r="C19" s="6" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="18" ht="67.5" spans="2:8">
-      <c r="B18" s="10"/>
-      <c r="C18" s="8" t="s">
+      <c r="D19" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="F19" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="B20" s="20"/>
+      <c r="C20" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" ht="67.5" spans="2:8">
-      <c r="B19" s="10"/>
-      <c r="C19" s="8" t="s">
+      <c r="E20" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="F20" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="117" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="21"/>
+      <c r="C21" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" ht="54" spans="2:8">
-      <c r="B20" s="10"/>
-      <c r="C20" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="E21" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" ht="117" customHeight="1" spans="2:8">
-      <c r="B21" s="12"/>
-      <c r="C21" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B21"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" customWidth="1"/>
@@ -3266,126 +2693,124 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="67.5" spans="2:3">
+    <row r="4" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B12" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>209</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="30" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>125</v>
       </c>
@@ -3420,305 +2845,305 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" ht="81" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>226</v>
+    <row r="2" spans="1:11" ht="81" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>218</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>271</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" ht="135" spans="1:7">
-      <c r="A3" s="5"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="135" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>272</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" ht="229.5" spans="1:7">
-      <c r="A4" s="5"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="229.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
       <c r="B4" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="22"/>
+      <c r="B5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="22"/>
+      <c r="B6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="1" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="135" x14ac:dyDescent="0.15">
+      <c r="A7" s="22"/>
+      <c r="B7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="F7" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E5" s="1" t="s">
+    </row>
+    <row r="8" spans="1:11" ht="243" x14ac:dyDescent="0.15">
+      <c r="A8" s="22"/>
+      <c r="B8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="6" ht="94.5" spans="1:7">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F6" s="1" t="s">
+    </row>
+    <row r="9" spans="1:11" ht="81" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
+      <c r="B9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="7" ht="189" spans="1:7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E7" s="1" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="22"/>
+      <c r="B10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="8" ht="243" spans="1:7">
-      <c r="A8" s="5"/>
-      <c r="B8" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D8" s="1" t="s">
+    <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="22"/>
+      <c r="B11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E8" s="1" t="s">
+    </row>
+    <row r="12" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="22"/>
+      <c r="B12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G8" s="1" t="s">
+    </row>
+    <row r="13" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="A13" s="22"/>
+      <c r="B13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="9" ht="81" spans="1:7">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E9" s="1" t="s">
+    </row>
+    <row r="14" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="A14" s="22"/>
+      <c r="B14" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G9" s="1" t="s">
+    </row>
+    <row r="15" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="22"/>
+      <c r="B15" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D10" s="1" t="s">
+    <row r="16" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="22"/>
+      <c r="B16" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G10" s="1" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="22"/>
+      <c r="B17" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="11" ht="27" spans="1:4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="12" ht="40.5" spans="1:5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E12" s="1" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="22"/>
+      <c r="B18" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="13" ht="54" spans="1:5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="E18" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="14" ht="54" spans="1:5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" ht="67.5" spans="1:5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="16" ht="40.5" spans="1:5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="17" ht="27" spans="1:7">
-      <c r="A17" s="5"/>
-      <c r="B17" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="18" ht="27" spans="1:7">
-      <c r="A18" s="5"/>
-      <c r="B18" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3726,7 +3151,7 @@
     <mergeCell ref="A2:A18"/>
     <mergeCell ref="D13:D15"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/项目实战/项目实战DAY01/测试用例及缺陷.xlsx
+++ b/项目实战/项目实战DAY01/测试用例及缺陷.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\leaving\GitWorksplace\Test\项目实战\项目实战DAY01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD1CFE6-BEB4-4CBC-BEA9-E90027104CEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296EE0C4-6998-48F1-9F9C-35B60D1C03FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前台测试用例范围" sheetId="3" r:id="rId1"/>
@@ -143,9 +143,6 @@
     <t>保质期</t>
   </si>
   <si>
-    <t>价格</t>
-  </si>
-  <si>
     <t>versace</t>
   </si>
   <si>
@@ -954,6 +951,10 @@
 (SELECT id from tp_goods_category where parent_id_path like '0_2_%_%') and is_on_sale = 1
 and is_hot = 1
 ORDER BY sort limit 6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1154,6 +1155,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1180,12 +1187,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1494,7 +1495,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1758,148 +1759,148 @@
       <c r="C20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>39</v>
+      <c r="D20" s="16" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="D22" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B31" s="17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B31" s="15" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16" t="s">
+      <c r="H31" s="18"/>
+      <c r="I31" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="54" x14ac:dyDescent="0.15">
       <c r="B32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="D32" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="E32" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="F32" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="G32" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="H32" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="I32" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" s="8">
         <v>10</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="F33" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" s="8" t="s">
+      <c r="I33" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="H34" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -1907,15 +1908,15 @@
         <v>28</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="165" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1954,277 +1955,277 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="1">
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D18" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2244,7 +2245,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -2266,405 +2267,405 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B2" s="21" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="22"/>
+      <c r="C3" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="20"/>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="H3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="B4" s="22"/>
+      <c r="C4" s="6" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="81" x14ac:dyDescent="0.15">
-      <c r="B4" s="20"/>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="24" t="s">
+      <c r="H4" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="B5" s="22"/>
+      <c r="C5" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="81" x14ac:dyDescent="0.15">
-      <c r="B5" s="20"/>
-      <c r="C5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="24" t="s">
+      <c r="H5" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="22"/>
+      <c r="C6" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="22"/>
+      <c r="C7" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="22"/>
+      <c r="C8" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="22"/>
+      <c r="C9" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="B10" s="22"/>
+      <c r="C10" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="B11" s="22"/>
+      <c r="C11" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="B12" s="22"/>
+      <c r="C12" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="22"/>
+      <c r="C13" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="B14" s="22"/>
+      <c r="C14" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B15" s="22"/>
+      <c r="C15" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="B16" s="22"/>
+      <c r="C16" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="20"/>
-      <c r="C6" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="20"/>
-      <c r="C7" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="20"/>
-      <c r="C8" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="20"/>
-      <c r="C9" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="81" x14ac:dyDescent="0.15">
-      <c r="B10" s="20"/>
-      <c r="C10" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="81" x14ac:dyDescent="0.15">
-      <c r="B11" s="20"/>
-      <c r="C11" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="81" x14ac:dyDescent="0.15">
-      <c r="B12" s="20"/>
-      <c r="C12" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="20"/>
-      <c r="C13" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B14" s="20"/>
-      <c r="C14" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B15" s="20"/>
-      <c r="C15" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="24" t="s">
+      <c r="F16" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="22"/>
+      <c r="C17" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="22"/>
+      <c r="C18" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="22"/>
+      <c r="C19" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="B20" s="22"/>
+      <c r="C20" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="117" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="23"/>
+      <c r="C21" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="B16" s="20"/>
-      <c r="C16" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B17" s="20"/>
-      <c r="C17" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B18" s="20"/>
-      <c r="C18" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B19" s="20"/>
-      <c r="C19" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="B20" s="20"/>
-      <c r="C20" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="117" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="21"/>
-      <c r="C21" s="6" t="s">
+      <c r="F21" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2681,7 +2682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -2695,7 +2696,7 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -2703,15 +2704,15 @@
     </row>
     <row r="4" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
@@ -2719,30 +2720,30 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B12" s="25" t="s">
-        <v>269</v>
+      <c r="B12" s="16" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>270</v>
+        <v>208</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
@@ -2750,35 +2751,35 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2791,9 +2792,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2812,338 +2813,338 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="81" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="F2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="24"/>
+      <c r="B3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="135" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="G3" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="162" x14ac:dyDescent="0.15">
+      <c r="A4" s="24"/>
+      <c r="B4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="229.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="G4" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="24"/>
+      <c r="B5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="81" x14ac:dyDescent="0.15">
+      <c r="A6" s="24"/>
+      <c r="B6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="135" x14ac:dyDescent="0.15">
+      <c r="A7" s="24"/>
+      <c r="B7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
-      <c r="B5" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
-      <c r="B6" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="135" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
-      <c r="B7" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="G7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:11" ht="175.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="24"/>
+      <c r="B8" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="243" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
-      <c r="B8" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:11" ht="81" x14ac:dyDescent="0.15">
+      <c r="A9" s="24"/>
+      <c r="B9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="81" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
-      <c r="B9" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="24"/>
+      <c r="B10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
-      <c r="B10" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="24"/>
+      <c r="B11" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
-      <c r="B11" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D11" s="1" t="s">
+    <row r="12" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="24"/>
+      <c r="B12" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
-      <c r="B12" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="A13" s="24"/>
+      <c r="B13" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="54" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D13" s="23" t="s">
+      <c r="E13" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="A14" s="24"/>
+      <c r="B14" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="54" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="1" t="s">
+    <row r="15" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="24"/>
+      <c r="B15" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="1" t="s">
+    <row r="16" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="24"/>
+      <c r="B16" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
-      <c r="B16" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="24"/>
+      <c r="B17" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="24"/>
+      <c r="B18" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
-      <c r="B18" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
